--- a/QCC3.xlsx
+++ b/QCC3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TO BAO DUONG tài liệu\UPDATE LỖI CÁC CẨU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Welcome\Documents\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -990,19 +990,6 @@
     <t xml:space="preserve"> Ngáng mất đèn đỏ (lock)</t>
   </si>
   <si>
-    <t>Kiểm tra có bị ú có bị mắc hay cơ cấu xoay chưa hết.
-kiểm tra tín hiệu đèn trên cabin có đủ không ( trước mặt lái cẩu)
-TH 1: nếu tín hiệu đèn trên cabin vẫn đủ
-Khả năng cao do hư hỏng phần đèn báo dưới ngáng cần kiểm tra phần đèn báo và dây điện đưa ra có bị hỏng không.
-TH 2: nếu tín hiệu trên cabin không có đèn đỏ
-1.Kiểm tra cảm biến khóa ú 2 bên
-kiểm tra đã có điện đến khu vực đấu nối cảm biến chưa
-2.Kiểm tra tín hiệu về hộp điện giữa
-Kiểm tra bằng cách nhìn đèn trên domino và đo điện áp.
-3.Kiểm tra tín hiệu trả về cẩu
-Kiểm tra rơ le 15k5 và dây điện từ dưới ngáng lên cẩu.</t>
-  </si>
-  <si>
     <t>no feed back twistlock unlocked</t>
   </si>
   <si>
@@ -1485,6 +1472,19 @@
   </si>
   <si>
     <t>HOIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra có bị ú có bị mắc hay cơ cấu xoay chưa hết.
+kiểm tra tín hiệu đèn trên cabin có đủ không ( trước mặt lái cẩu)
+TH 1: nếu tín hiệu đèn trên cabin vẫn đủ
+Khả năng cao do hư hỏng phần đèn báo dưới ngáng cần kiểm tra phần đèn báo và dây điện đưa ra có bị hỏng không.
+TH 2: nếu tín hiệu trên cabin không có đèn đỏ
+1.Kiểm tra cảm biến khóa ú 2 bên
+kiểm tra đã có điện đến khu vực đấu nối cảm biến chưa
+2.Kiểm tra tín hiệu về hộp điện giữa
+Kiểm tra bằng cách nhìn đèn trên domino và đo điện áp.
+3.Kiểm tra tín hiệu trả về cẩu
+Kiểm tra rơ le 15k5 và dây điện từ dưới ngáng lên cẩu. </t>
   </si>
 </sst>
 </file>
@@ -1669,11 +1669,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1690,6 +1690,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4134972</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>1288677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5768411</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>2203077</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16820031" y="143401677"/>
+          <a:ext cx="1633439" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1957,8 +2006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="G100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1975,16 +2024,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -2965,7 +3014,7 @@
       <c r="D36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F36" s="7" t="s">
@@ -2975,7 +3024,7 @@
         <v>76</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I36" s="21" t="s">
         <v>135</v>
@@ -2994,7 +3043,7 @@
       <c r="D37" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="E37" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F37" s="7" t="s">
@@ -3004,7 +3053,7 @@
         <v>77</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I37" s="21"/>
     </row>
@@ -3021,7 +3070,7 @@
       <c r="D38" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E38" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F38" s="7" t="s">
@@ -3031,7 +3080,7 @@
         <v>78</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I38" s="21"/>
     </row>
@@ -3048,7 +3097,7 @@
       <c r="D39" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E39" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F39" s="7" t="s">
@@ -3058,7 +3107,7 @@
         <v>79</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I39" s="21"/>
     </row>
@@ -3075,7 +3124,7 @@
       <c r="D40" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="E40" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F40" s="7" t="s">
@@ -3085,7 +3134,7 @@
         <v>80</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I40" s="21"/>
     </row>
@@ -3102,7 +3151,7 @@
       <c r="D41" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="27" t="s">
+      <c r="E41" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F41" s="7" t="s">
@@ -3112,7 +3161,7 @@
         <v>81</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I41" s="21"/>
     </row>
@@ -3129,7 +3178,7 @@
       <c r="D42" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F42" s="7" t="s">
@@ -3139,7 +3188,7 @@
         <v>82</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I42" s="21"/>
     </row>
@@ -3156,7 +3205,7 @@
       <c r="D43" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="27" t="s">
+      <c r="E43" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F43" s="7" t="s">
@@ -3183,7 +3232,7 @@
       <c r="D44" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F44" s="7" t="s">
@@ -3210,7 +3259,7 @@
       <c r="D45" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="27" t="s">
+      <c r="E45" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F45" s="7" t="s">
@@ -3237,7 +3286,7 @@
       <c r="D46" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="27" t="s">
+      <c r="E46" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F46" s="7" t="s">
@@ -3264,7 +3313,7 @@
       <c r="D47" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E47" s="27" t="s">
+      <c r="E47" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F47" s="7" t="s">
@@ -3274,7 +3323,7 @@
         <v>87</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I47" s="21"/>
     </row>
@@ -3291,7 +3340,7 @@
       <c r="D48" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="27" t="s">
+      <c r="E48" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F48" s="7" t="s">
@@ -3301,7 +3350,7 @@
         <v>88</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I48" s="21"/>
     </row>
@@ -3318,7 +3367,7 @@
       <c r="D49" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E49" s="27" t="s">
+      <c r="E49" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F49" s="7" t="s">
@@ -3328,7 +3377,7 @@
         <v>89</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I49" s="21"/>
     </row>
@@ -3345,7 +3394,7 @@
       <c r="D50" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E50" s="27" t="s">
+      <c r="E50" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F50" s="7" t="s">
@@ -3355,7 +3404,7 @@
         <v>90</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I50" s="21"/>
     </row>
@@ -3372,7 +3421,7 @@
       <c r="D51" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E51" s="27" t="s">
+      <c r="E51" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F51" s="7" t="s">
@@ -3382,7 +3431,7 @@
         <v>91</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I51" s="21"/>
     </row>
@@ -3399,7 +3448,7 @@
       <c r="D52" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E52" s="27" t="s">
+      <c r="E52" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F52" s="7" t="s">
@@ -3409,7 +3458,7 @@
         <v>92</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I52" s="21"/>
     </row>
@@ -3426,7 +3475,7 @@
       <c r="D53" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E53" s="27" t="s">
+      <c r="E53" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F53" s="7" t="s">
@@ -3436,7 +3485,7 @@
         <v>93</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I53" s="21"/>
     </row>
@@ -3453,7 +3502,7 @@
       <c r="D54" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="27" t="s">
+      <c r="E54" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F54" s="7" t="s">
@@ -3480,7 +3529,7 @@
       <c r="D55" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E55" s="27" t="s">
+      <c r="E55" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F55" s="7" t="s">
@@ -3490,7 +3539,7 @@
         <v>95</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I55" s="21"/>
     </row>
@@ -3507,7 +3556,7 @@
       <c r="D56" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E56" s="27" t="s">
+      <c r="E56" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F56" s="7" t="s">
@@ -3517,7 +3566,7 @@
         <v>96</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I56" s="21"/>
     </row>
@@ -3534,7 +3583,7 @@
       <c r="D57" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E57" s="27" t="s">
+      <c r="E57" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F57" s="7" t="s">
@@ -3544,7 +3593,7 @@
         <v>97</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I57" s="21"/>
     </row>
@@ -3561,7 +3610,7 @@
       <c r="D58" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E58" s="27" t="s">
+      <c r="E58" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F58" s="7" t="s">
@@ -3571,7 +3620,7 @@
         <v>98</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I58" s="21"/>
     </row>
@@ -3588,7 +3637,7 @@
       <c r="D59" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E59" s="27" t="s">
+      <c r="E59" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F59" s="7" t="s">
@@ -3598,7 +3647,7 @@
         <v>99</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I59" s="21"/>
     </row>
@@ -3615,7 +3664,7 @@
       <c r="D60" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E60" s="27" t="s">
+      <c r="E60" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F60" s="7" t="s">
@@ -3625,7 +3674,7 @@
         <v>100</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I60" s="21"/>
     </row>
@@ -3642,7 +3691,7 @@
       <c r="D61" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E61" s="27" t="s">
+      <c r="E61" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F61" s="7" t="s">
@@ -3652,7 +3701,7 @@
         <v>101</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I61" s="21"/>
     </row>
@@ -3669,7 +3718,7 @@
       <c r="D62" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E62" s="27" t="s">
+      <c r="E62" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F62" s="7" t="s">
@@ -3679,7 +3728,7 @@
         <v>102</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I62" s="21"/>
     </row>
@@ -3696,7 +3745,7 @@
       <c r="D63" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E63" s="27" t="s">
+      <c r="E63" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F63" s="7" t="s">
@@ -3706,7 +3755,7 @@
         <v>103</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I63" s="21"/>
     </row>
@@ -3723,7 +3772,7 @@
       <c r="D64" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E64" s="27" t="s">
+      <c r="E64" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F64" s="7" t="s">
@@ -3733,7 +3782,7 @@
         <v>104</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I64" s="21"/>
     </row>
@@ -3750,7 +3799,7 @@
       <c r="D65" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E65" s="27" t="s">
+      <c r="E65" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F65" s="7" t="s">
@@ -3760,7 +3809,7 @@
         <v>105</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
@@ -3776,7 +3825,7 @@
       <c r="D66" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E66" s="27" t="s">
+      <c r="E66" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F66" s="7" t="s">
@@ -3786,7 +3835,7 @@
         <v>106</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
@@ -3802,7 +3851,7 @@
       <c r="D67" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E67" s="27" t="s">
+      <c r="E67" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F67" s="10" t="s">
@@ -3812,7 +3861,7 @@
         <v>107</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
@@ -3828,7 +3877,7 @@
       <c r="D68" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E68" s="27" t="s">
+      <c r="E68" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F68" s="7" t="s">
@@ -3838,7 +3887,7 @@
         <v>108</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
@@ -3854,7 +3903,7 @@
       <c r="D69" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E69" s="27" t="s">
+      <c r="E69" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F69" s="7" t="s">
@@ -3864,7 +3913,7 @@
         <v>109</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
@@ -3880,7 +3929,7 @@
       <c r="D70" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E70" s="27" t="s">
+      <c r="E70" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F70" s="10" t="s">
@@ -3890,7 +3939,7 @@
         <v>110</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
@@ -3906,7 +3955,7 @@
       <c r="D71" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E71" s="27" t="s">
+      <c r="E71" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F71" s="7" t="s">
@@ -3916,7 +3965,7 @@
         <v>111</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
@@ -3932,7 +3981,7 @@
       <c r="D72" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E72" s="27" t="s">
+      <c r="E72" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F72" s="7" t="s">
@@ -3942,7 +3991,7 @@
         <v>112</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
@@ -3958,7 +4007,7 @@
       <c r="D73" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E73" s="27" t="s">
+      <c r="E73" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F73" s="7" t="s">
@@ -3968,7 +4017,7 @@
         <v>113</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
@@ -3984,7 +4033,7 @@
       <c r="D74" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E74" s="27" t="s">
+      <c r="E74" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F74" s="10" t="s">
@@ -3994,7 +4043,7 @@
         <v>114</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="66" x14ac:dyDescent="0.25">
@@ -4010,7 +4059,7 @@
       <c r="D75" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E75" s="27" t="s">
+      <c r="E75" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F75" s="7" t="s">
@@ -4020,7 +4069,7 @@
         <v>115</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
@@ -4036,7 +4085,7 @@
       <c r="D76" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E76" s="27" t="s">
+      <c r="E76" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F76" s="7" t="s">
@@ -4046,7 +4095,7 @@
         <v>116</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
@@ -4062,7 +4111,7 @@
       <c r="D77" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E77" s="27" t="s">
+      <c r="E77" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F77" s="7" t="s">
@@ -4072,7 +4121,7 @@
         <v>117</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
@@ -4088,7 +4137,7 @@
       <c r="D78" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E78" s="27" t="s">
+      <c r="E78" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F78" s="7" t="s">
@@ -4098,7 +4147,7 @@
         <v>118</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
@@ -4114,7 +4163,7 @@
       <c r="D79" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E79" s="27" t="s">
+      <c r="E79" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F79" s="7" t="s">
@@ -4124,7 +4173,7 @@
         <v>119</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
@@ -4140,7 +4189,7 @@
       <c r="D80" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E80" s="27" t="s">
+      <c r="E80" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F80" s="7" t="s">
@@ -4150,7 +4199,7 @@
         <v>120</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="115.5" x14ac:dyDescent="0.25">
@@ -4167,7 +4216,7 @@
         <v>31</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F81" s="13" t="s">
         <v>137</v>
@@ -4193,7 +4242,7 @@
         <v>31</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F82" s="13" t="s">
         <v>140</v>
@@ -4219,7 +4268,7 @@
         <v>31</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>142</v>
@@ -4245,7 +4294,7 @@
         <v>31</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>145</v>
@@ -4271,7 +4320,7 @@
         <v>31</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>148</v>
@@ -4295,7 +4344,7 @@
         <v>31</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>150</v>
@@ -4321,7 +4370,7 @@
         <v>31</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>153</v>
@@ -4347,7 +4396,7 @@
         <v>31</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F88" s="13" t="s">
         <v>156</v>
@@ -4371,7 +4420,7 @@
         <v>31</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>158</v>
@@ -4397,7 +4446,7 @@
         <v>31</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>161</v>
@@ -4423,7 +4472,7 @@
         <v>31</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F91" s="22" t="s">
         <v>235</v>
@@ -4449,7 +4498,7 @@
         <v>31</v>
       </c>
       <c r="E92" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F92" s="22" t="s">
         <v>238</v>
@@ -4475,7 +4524,7 @@
         <v>31</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F93" s="23" t="s">
         <v>241</v>
@@ -4501,7 +4550,7 @@
         <v>31</v>
       </c>
       <c r="E94" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F94" s="22" t="s">
         <v>244</v>
@@ -4527,7 +4576,7 @@
         <v>31</v>
       </c>
       <c r="E95" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F95" s="7" t="s">
         <v>247</v>
@@ -4553,7 +4602,7 @@
         <v>31</v>
       </c>
       <c r="E96" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F96" s="22" t="s">
         <v>249</v>
@@ -4579,7 +4628,7 @@
         <v>31</v>
       </c>
       <c r="E97" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F97" s="22" t="s">
         <v>252</v>
@@ -4605,7 +4654,7 @@
         <v>31</v>
       </c>
       <c r="E98" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F98" s="22" t="s">
         <v>255</v>
@@ -4631,7 +4680,7 @@
         <v>31</v>
       </c>
       <c r="E99" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F99" s="22" t="s">
         <v>258</v>
@@ -4657,7 +4706,7 @@
         <v>31</v>
       </c>
       <c r="E100" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F100" s="24" t="s">
         <v>261</v>
@@ -4683,7 +4732,7 @@
         <v>31</v>
       </c>
       <c r="E101" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F101" s="24" t="s">
         <v>263</v>
@@ -4692,7 +4741,7 @@
         <v>264</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>265</v>
+        <v>348</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="181.5" x14ac:dyDescent="0.25">
@@ -4709,16 +4758,16 @@
         <v>31</v>
       </c>
       <c r="E102" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F102" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="G102" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="G102" s="24" t="s">
+      <c r="H102" s="13" t="s">
         <v>267</v>
-      </c>
-      <c r="H102" s="13" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="181.5" x14ac:dyDescent="0.25">
@@ -4735,16 +4784,16 @@
         <v>31</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F103" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="G103" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="G103" s="24" t="s">
+      <c r="H103" s="13" t="s">
         <v>270</v>
-      </c>
-      <c r="H103" s="13" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
@@ -4761,16 +4810,16 @@
         <v>31</v>
       </c>
       <c r="E104" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F104" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="G104" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="G104" s="24" t="s">
+      <c r="H104" s="13" t="s">
         <v>273</v>
-      </c>
-      <c r="H104" s="13" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
@@ -4787,16 +4836,16 @@
         <v>31</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F105" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="G105" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="G105" s="24" t="s">
+      <c r="H105" s="13" t="s">
         <v>276</v>
-      </c>
-      <c r="H105" s="13" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="66" x14ac:dyDescent="0.25">
@@ -4813,16 +4862,16 @@
         <v>31</v>
       </c>
       <c r="E106" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F106" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="G106" s="24" t="s">
         <v>278</v>
       </c>
-      <c r="G106" s="24" t="s">
+      <c r="H106" s="13" t="s">
         <v>279</v>
-      </c>
-      <c r="H106" s="13" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
@@ -4839,16 +4888,16 @@
         <v>31</v>
       </c>
       <c r="E107" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F107" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="G107" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="G107" s="24" t="s">
+      <c r="H107" s="13" t="s">
         <v>282</v>
-      </c>
-      <c r="H107" s="13" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
@@ -4865,16 +4914,16 @@
         <v>31</v>
       </c>
       <c r="E108" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F108" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="G108" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="H108" s="13" t="s">
         <v>284</v>
-      </c>
-      <c r="G108" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="H108" s="13" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
@@ -4891,16 +4940,16 @@
         <v>31</v>
       </c>
       <c r="E109" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F109" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="G109" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="G109" s="24" t="s">
+      <c r="H109" s="13" t="s">
         <v>287</v>
-      </c>
-      <c r="H109" s="13" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
@@ -4917,16 +4966,16 @@
         <v>31</v>
       </c>
       <c r="E110" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F110" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="G110" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="G110" s="24" t="s">
+      <c r="H110" s="13" t="s">
         <v>290</v>
-      </c>
-      <c r="H110" s="13" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="66" x14ac:dyDescent="0.25">
@@ -4943,16 +4992,16 @@
         <v>31</v>
       </c>
       <c r="E111" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F111" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="G111" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="G111" s="13" t="s">
+      <c r="H111" s="13" t="s">
         <v>293</v>
-      </c>
-      <c r="H111" s="13" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
@@ -4969,16 +5018,16 @@
         <v>31</v>
       </c>
       <c r="E112" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F112" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="G112" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="H112" s="13" t="s">
         <v>295</v>
-      </c>
-      <c r="G112" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="H112" s="13" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="132" x14ac:dyDescent="0.25">
@@ -4995,16 +5044,16 @@
         <v>31</v>
       </c>
       <c r="E113" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F113" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="G113" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="G113" s="24" t="s">
+      <c r="H113" s="13" t="s">
         <v>298</v>
-      </c>
-      <c r="H113" s="13" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="132" x14ac:dyDescent="0.25">
@@ -5021,16 +5070,16 @@
         <v>31</v>
       </c>
       <c r="E114" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F114" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="G114" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="G114" s="24" t="s">
+      <c r="H114" s="13" t="s">
         <v>301</v>
-      </c>
-      <c r="H114" s="13" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="132" x14ac:dyDescent="0.25">
@@ -5047,16 +5096,16 @@
         <v>31</v>
       </c>
       <c r="E115" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F115" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="G115" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="G115" s="24" t="s">
+      <c r="H115" s="13" t="s">
         <v>304</v>
-      </c>
-      <c r="H115" s="13" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -5315,7 +5364,7 @@
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
-      <c r="E144" s="27"/>
+      <c r="E144" s="26"/>
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
       <c r="H144" s="13"/>
@@ -5324,7 +5373,7 @@
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
-      <c r="E145" s="27"/>
+      <c r="E145" s="26"/>
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
       <c r="H145" s="13"/>
@@ -5333,7 +5382,7 @@
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
-      <c r="E146" s="27"/>
+      <c r="E146" s="26"/>
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
       <c r="H146" s="13"/>
@@ -5342,7 +5391,7 @@
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
-      <c r="E147" s="27"/>
+      <c r="E147" s="26"/>
       <c r="F147" s="10"/>
       <c r="G147" s="10"/>
       <c r="H147" s="13"/>
@@ -5351,7 +5400,7 @@
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
-      <c r="E148" s="27"/>
+      <c r="E148" s="26"/>
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
       <c r="H148" s="13"/>
@@ -5360,7 +5409,7 @@
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
-      <c r="E149" s="27"/>
+      <c r="E149" s="26"/>
       <c r="F149" s="7"/>
       <c r="G149" s="7"/>
       <c r="H149" s="13"/>
@@ -5369,7 +5418,7 @@
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
-      <c r="E150" s="27"/>
+      <c r="E150" s="26"/>
       <c r="F150" s="10"/>
       <c r="G150" s="7"/>
       <c r="H150" s="13"/>
@@ -5378,7 +5427,7 @@
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
-      <c r="E151" s="27"/>
+      <c r="E151" s="26"/>
       <c r="F151" s="7"/>
       <c r="G151" s="7"/>
       <c r="H151" s="13"/>
@@ -5387,7 +5436,7 @@
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
-      <c r="E152" s="27"/>
+      <c r="E152" s="26"/>
       <c r="F152" s="7"/>
       <c r="G152" s="7"/>
       <c r="H152" s="13"/>
@@ -5396,7 +5445,7 @@
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
-      <c r="E153" s="27"/>
+      <c r="E153" s="26"/>
       <c r="F153" s="7"/>
       <c r="G153" s="7"/>
       <c r="H153" s="13"/>
@@ -5405,7 +5454,7 @@
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
-      <c r="E154" s="27"/>
+      <c r="E154" s="26"/>
       <c r="F154" s="10"/>
       <c r="G154" s="7"/>
       <c r="H154" s="13"/>
@@ -5414,7 +5463,7 @@
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
-      <c r="E155" s="27"/>
+      <c r="E155" s="26"/>
       <c r="F155" s="7"/>
       <c r="G155" s="10"/>
       <c r="H155" s="13"/>
@@ -5423,7 +5472,7 @@
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
-      <c r="E156" s="27"/>
+      <c r="E156" s="26"/>
       <c r="F156" s="7"/>
       <c r="G156" s="7"/>
       <c r="H156" s="13"/>
@@ -5432,7 +5481,7 @@
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
-      <c r="E157" s="27"/>
+      <c r="E157" s="26"/>
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
       <c r="H157" s="13"/>
@@ -5441,7 +5490,7 @@
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
-      <c r="E158" s="27"/>
+      <c r="E158" s="26"/>
       <c r="F158" s="7"/>
       <c r="G158" s="7"/>
       <c r="H158" s="13"/>
@@ -5450,7 +5499,7 @@
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
-      <c r="E159" s="27"/>
+      <c r="E159" s="26"/>
       <c r="F159" s="7"/>
       <c r="G159" s="7"/>
       <c r="H159" s="13"/>
@@ -5459,7 +5508,7 @@
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
-      <c r="E160" s="27"/>
+      <c r="E160" s="26"/>
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
       <c r="H160" s="13"/>
@@ -5470,5 +5519,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>